--- a/python_work/excel/20211119/score.xlsx
+++ b/python_work/excel/20211119/score.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -463,6 +463,16 @@
           <t>프로젝트</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>총점</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>성적</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -486,6 +496,9 @@
       <c r="G2" t="n">
         <v>12</v>
       </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,6 +522,9 @@
       <c r="G3" t="n">
         <v>18</v>
       </c>
+      <c r="H3" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -532,6 +548,9 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
+      <c r="H4" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -555,6 +574,9 @@
       <c r="G5" t="n">
         <v>18</v>
       </c>
+      <c r="H5" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -578,6 +600,9 @@
       <c r="G6" t="n">
         <v>15</v>
       </c>
+      <c r="H6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -601,6 +626,9 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -624,6 +652,9 @@
       <c r="G8" t="n">
         <v>18</v>
       </c>
+      <c r="H8" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -647,6 +678,9 @@
       <c r="G9" t="n">
         <v>17</v>
       </c>
+      <c r="H9" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -670,6 +704,9 @@
       <c r="G10" t="n">
         <v>19</v>
       </c>
+      <c r="H10" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -692,6 +729,9 @@
       </c>
       <c r="G11" t="n">
         <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/python_work/excel/20211119/score.xlsx
+++ b/python_work/excel/20211119/score.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="10995" windowHeight="5235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,11 +415,11 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -499,6 +493,11 @@
       <c r="H2" t="n">
         <v>80</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -525,6 +524,11 @@
       <c r="H3" t="n">
         <v>77</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -551,6 +555,11 @@
       <c r="H4" t="n">
         <v>48</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +586,11 @@
       <c r="H5" t="n">
         <v>81</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -603,6 +617,11 @@
       <c r="H6" t="n">
         <v>81</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -629,6 +648,11 @@
       <c r="H7" t="n">
         <v>43</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -655,6 +679,11 @@
       <c r="H8" t="n">
         <v>84</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -681,6 +710,11 @@
       <c r="H9" t="n">
         <v>73</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -707,6 +741,11 @@
       <c r="H10" t="n">
         <v>98</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -733,9 +772,13 @@
       <c r="H11" t="n">
         <v>92</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>